--- a/MomentumCalc.xlsx
+++ b/MomentumCalc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\Desktop\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1E53DA-4889-482D-935A-69686409CCD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7323D796-0B50-4AFE-9571-B61BD7590668}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="3540" windowWidth="9450" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MomentumCalc" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>date</t>
+    <t>Adj Slope 90</t>
+  </si>
+  <si>
+    <t>Adj Slope 125</t>
+  </si>
+  <si>
+    <t>Adj Slope 250</t>
+  </si>
+  <si>
+    <t>Log and price series</t>
   </si>
 </sst>
 </file>
@@ -354,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -478,6 +487,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -523,12 +552,19 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P509"/>
+  <dimension ref="A1:P514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" workbookViewId="0">
-      <selection activeCell="C511" sqref="C511"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="A508" sqref="A508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,9 +935,7 @@
       <c r="A1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B1" s="9"/>
       <c r="C1">
         <v>2</v>
       </c>
@@ -914,9 +948,7 @@
       <c r="A2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2">
         <v>2</v>
       </c>
@@ -929,9 +961,7 @@
       <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3">
         <v>2</v>
       </c>
@@ -944,9 +974,7 @@
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4">
         <v>2</v>
       </c>
@@ -959,9 +987,7 @@
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5">
         <v>2</v>
       </c>
@@ -974,9 +1000,7 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6">
         <v>2</v>
       </c>
@@ -989,9 +1013,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7">
         <v>2</v>
       </c>
@@ -1004,9 +1026,7 @@
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8">
         <v>2</v>
       </c>
@@ -1019,9 +1039,7 @@
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9">
         <v>2</v>
       </c>
@@ -1034,9 +1052,7 @@
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10">
         <v>2</v>
       </c>
@@ -1049,9 +1065,7 @@
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11">
         <v>2</v>
       </c>
@@ -1064,9 +1078,7 @@
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12">
         <v>2</v>
       </c>
@@ -1079,9 +1091,7 @@
       <c r="A13">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13">
         <v>2</v>
       </c>
@@ -1094,9 +1104,7 @@
       <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14">
         <v>2</v>
       </c>
@@ -1109,9 +1117,7 @@
       <c r="A15">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15">
         <v>2</v>
       </c>
@@ -1124,9 +1130,7 @@
       <c r="A16">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16">
         <v>2</v>
       </c>
@@ -1139,9 +1143,7 @@
       <c r="A17">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17">
         <v>2</v>
       </c>
@@ -1154,9 +1156,7 @@
       <c r="A18">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18">
         <v>2</v>
       </c>
@@ -1169,9 +1169,7 @@
       <c r="A19">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19">
         <v>2</v>
       </c>
@@ -1184,9 +1182,7 @@
       <c r="A20">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20">
         <v>2</v>
       </c>
@@ -1199,9 +1195,7 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21">
         <v>2</v>
       </c>
@@ -1214,9 +1208,7 @@
       <c r="A22">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22">
         <v>2</v>
       </c>
@@ -1229,9 +1221,7 @@
       <c r="A23">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23">
         <v>2</v>
       </c>
@@ -1244,9 +1234,7 @@
       <c r="A24">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24">
         <v>2</v>
       </c>
@@ -1259,9 +1247,7 @@
       <c r="A25">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25">
         <v>2</v>
       </c>
@@ -1274,9 +1260,7 @@
       <c r="A26">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26">
         <v>2</v>
       </c>
@@ -1289,9 +1273,7 @@
       <c r="A27">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27">
         <v>2</v>
       </c>
@@ -1304,9 +1286,7 @@
       <c r="A28">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28">
         <v>2</v>
       </c>
@@ -1319,9 +1299,7 @@
       <c r="A29">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29">
         <v>2</v>
       </c>
@@ -1334,9 +1312,7 @@
       <c r="A30">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30">
         <v>2</v>
       </c>
@@ -1349,9 +1325,7 @@
       <c r="A31">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31">
         <v>2</v>
       </c>
@@ -1364,9 +1338,7 @@
       <c r="A32">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32">
         <v>2</v>
       </c>
@@ -1379,9 +1351,7 @@
       <c r="A33">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33">
         <v>2</v>
       </c>
@@ -1394,9 +1364,7 @@
       <c r="A34">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34">
         <v>2</v>
       </c>
@@ -1409,9 +1377,7 @@
       <c r="A35">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35">
         <v>2</v>
       </c>
@@ -1424,9 +1390,7 @@
       <c r="A36">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36">
         <v>2</v>
       </c>
@@ -1439,9 +1403,7 @@
       <c r="A37">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37">
         <v>2</v>
       </c>
@@ -1454,9 +1416,7 @@
       <c r="A38">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38">
         <v>2</v>
       </c>
@@ -1469,9 +1429,7 @@
       <c r="A39">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39">
         <v>2</v>
       </c>
@@ -1484,9 +1442,7 @@
       <c r="A40">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40">
         <v>2</v>
       </c>
@@ -1499,9 +1455,7 @@
       <c r="A41">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41">
         <v>2</v>
       </c>
@@ -1514,9 +1468,7 @@
       <c r="A42">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42">
         <v>2</v>
       </c>
@@ -1529,9 +1481,7 @@
       <c r="A43">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43">
         <v>2</v>
       </c>
@@ -1544,9 +1494,7 @@
       <c r="A44">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44">
         <v>2</v>
       </c>
@@ -1559,9 +1507,7 @@
       <c r="A45">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45">
         <v>2</v>
       </c>
@@ -1574,9 +1520,7 @@
       <c r="A46">
         <v>46</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46">
         <v>2</v>
       </c>
@@ -1589,9 +1533,7 @@
       <c r="A47">
         <v>47</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47">
         <v>2</v>
       </c>
@@ -1604,9 +1546,7 @@
       <c r="A48">
         <v>48</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48">
         <v>2</v>
       </c>
@@ -1619,9 +1559,7 @@
       <c r="A49">
         <v>49</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49">
         <v>2</v>
       </c>
@@ -1634,9 +1572,7 @@
       <c r="A50">
         <v>50</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50">
         <v>2</v>
       </c>
@@ -1649,9 +1585,7 @@
       <c r="A51">
         <v>51</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B51" s="1"/>
       <c r="C51">
         <v>2</v>
       </c>
@@ -1664,9 +1598,7 @@
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B52" s="1"/>
       <c r="C52">
         <v>2</v>
       </c>
@@ -1679,9 +1611,7 @@
       <c r="A53">
         <v>53</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53">
         <v>2</v>
       </c>
@@ -1694,9 +1624,7 @@
       <c r="A54">
         <v>54</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54">
         <v>2</v>
       </c>
@@ -1709,9 +1637,7 @@
       <c r="A55">
         <v>55</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B55" s="1"/>
       <c r="C55">
         <v>2</v>
       </c>
@@ -1724,9 +1650,7 @@
       <c r="A56">
         <v>56</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B56" s="1"/>
       <c r="C56">
         <v>2</v>
       </c>
@@ -1739,9 +1663,7 @@
       <c r="A57">
         <v>57</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57">
         <v>2</v>
       </c>
@@ -1754,9 +1676,7 @@
       <c r="A58">
         <v>58</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B58" s="1"/>
       <c r="C58">
         <v>2</v>
       </c>
@@ -1769,9 +1689,7 @@
       <c r="A59">
         <v>59</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59">
         <v>2</v>
       </c>
@@ -1784,9 +1702,7 @@
       <c r="A60">
         <v>60</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B60" s="1"/>
       <c r="C60">
         <v>2</v>
       </c>
@@ -1799,9 +1715,7 @@
       <c r="A61">
         <v>61</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61">
         <v>2</v>
       </c>
@@ -1814,9 +1728,7 @@
       <c r="A62">
         <v>62</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B62" s="1"/>
       <c r="C62">
         <v>2</v>
       </c>
@@ -1829,9 +1741,7 @@
       <c r="A63">
         <v>63</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B63" s="1"/>
       <c r="C63">
         <v>2</v>
       </c>
@@ -1844,9 +1754,7 @@
       <c r="A64">
         <v>64</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B64" s="1"/>
       <c r="C64">
         <v>2</v>
       </c>
@@ -1859,9 +1767,7 @@
       <c r="A65">
         <v>65</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B65" s="1"/>
       <c r="C65">
         <v>2</v>
       </c>
@@ -1874,9 +1780,7 @@
       <c r="A66">
         <v>66</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B66" s="1"/>
       <c r="C66">
         <v>2</v>
       </c>
@@ -1889,9 +1793,7 @@
       <c r="A67">
         <v>67</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B67" s="1"/>
       <c r="C67">
         <v>2</v>
       </c>
@@ -1904,9 +1806,7 @@
       <c r="A68">
         <v>68</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68">
         <v>2</v>
       </c>
@@ -1919,9 +1819,7 @@
       <c r="A69">
         <v>69</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69">
         <v>2</v>
       </c>
@@ -1934,9 +1832,7 @@
       <c r="A70">
         <v>70</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B70" s="1"/>
       <c r="C70">
         <v>2</v>
       </c>
@@ -1949,9 +1845,7 @@
       <c r="A71">
         <v>71</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="C71">
         <v>2</v>
       </c>
@@ -1964,9 +1858,7 @@
       <c r="A72">
         <v>72</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72">
         <v>2</v>
       </c>
@@ -1979,9 +1871,7 @@
       <c r="A73">
         <v>73</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73">
         <v>2</v>
       </c>
@@ -1994,9 +1884,7 @@
       <c r="A74">
         <v>74</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74">
         <v>2</v>
       </c>
@@ -2009,9 +1897,7 @@
       <c r="A75">
         <v>75</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B75" s="1"/>
       <c r="C75">
         <v>2</v>
       </c>
@@ -2024,9 +1910,7 @@
       <c r="A76">
         <v>76</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76">
         <v>2</v>
       </c>
@@ -2039,9 +1923,7 @@
       <c r="A77">
         <v>77</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77">
         <v>2</v>
       </c>
@@ -2054,9 +1936,7 @@
       <c r="A78">
         <v>78</v>
       </c>
-      <c r="B78" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B78" s="1"/>
       <c r="C78">
         <v>2</v>
       </c>
@@ -2069,9 +1949,7 @@
       <c r="A79">
         <v>79</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79">
         <v>2</v>
       </c>
@@ -2084,9 +1962,7 @@
       <c r="A80">
         <v>80</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B80" s="1"/>
       <c r="C80">
         <v>2</v>
       </c>
@@ -2099,9 +1975,7 @@
       <c r="A81">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81">
         <v>2</v>
       </c>
@@ -2114,9 +1988,7 @@
       <c r="A82">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82">
         <v>2</v>
       </c>
@@ -2129,9 +2001,7 @@
       <c r="A83">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B83" s="1"/>
       <c r="C83">
         <v>2</v>
       </c>
@@ -2144,9 +2014,7 @@
       <c r="A84">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B84" s="1"/>
       <c r="C84">
         <v>2</v>
       </c>
@@ -2159,9 +2027,7 @@
       <c r="A85">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B85" s="1"/>
       <c r="C85">
         <v>2</v>
       </c>
@@ -2174,9 +2040,7 @@
       <c r="A86">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B86" s="1"/>
       <c r="C86">
         <v>2</v>
       </c>
@@ -2189,9 +2053,7 @@
       <c r="A87">
         <v>87</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B87" s="1"/>
       <c r="C87">
         <v>2</v>
       </c>
@@ -2204,9 +2066,7 @@
       <c r="A88">
         <v>88</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B88" s="1"/>
       <c r="C88">
         <v>2</v>
       </c>
@@ -2219,9 +2079,7 @@
       <c r="A89">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B89" s="1"/>
       <c r="C89">
         <v>2</v>
       </c>
@@ -2234,9 +2092,7 @@
       <c r="A90">
         <v>90</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B90" s="1"/>
       <c r="C90">
         <v>2</v>
       </c>
@@ -2265,9 +2121,7 @@
       <c r="A91">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91">
         <v>2</v>
       </c>
@@ -2296,9 +2150,7 @@
       <c r="A92">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B92" s="1"/>
       <c r="C92">
         <v>2</v>
       </c>
@@ -2327,9 +2179,7 @@
       <c r="A93">
         <v>93</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B93" s="1"/>
       <c r="C93">
         <v>2</v>
       </c>
@@ -2358,9 +2208,7 @@
       <c r="A94">
         <v>94</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B94" s="1"/>
       <c r="C94">
         <v>2</v>
       </c>
@@ -2389,9 +2237,7 @@
       <c r="A95">
         <v>95</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95">
         <v>2</v>
       </c>
@@ -2420,9 +2266,7 @@
       <c r="A96">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96">
         <v>2</v>
       </c>
@@ -2451,9 +2295,7 @@
       <c r="A97">
         <v>97</v>
       </c>
-      <c r="B97" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97">
         <v>2</v>
       </c>
@@ -2482,9 +2324,7 @@
       <c r="A98">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B98" s="1"/>
       <c r="C98">
         <v>2</v>
       </c>
@@ -2513,9 +2353,7 @@
       <c r="A99">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B99" s="1"/>
       <c r="C99">
         <v>2</v>
       </c>
@@ -2544,9 +2382,7 @@
       <c r="A100">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100">
         <v>2</v>
       </c>
@@ -2575,9 +2411,7 @@
       <c r="A101">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101">
         <v>2</v>
       </c>
@@ -2606,9 +2440,7 @@
       <c r="A102">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B102" s="1"/>
       <c r="C102">
         <v>2</v>
       </c>
@@ -2637,9 +2469,7 @@
       <c r="A103">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B103" s="1"/>
       <c r="C103">
         <v>2</v>
       </c>
@@ -2668,9 +2498,7 @@
       <c r="A104">
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B104" s="1"/>
       <c r="C104">
         <v>2</v>
       </c>
@@ -2699,9 +2527,7 @@
       <c r="A105">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B105" s="1"/>
       <c r="C105">
         <v>2</v>
       </c>
@@ -2730,9 +2556,7 @@
       <c r="A106">
         <v>106</v>
       </c>
-      <c r="B106" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B106" s="1"/>
       <c r="C106">
         <v>2</v>
       </c>
@@ -2761,9 +2585,7 @@
       <c r="A107">
         <v>107</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="C107">
         <v>2</v>
       </c>
@@ -2792,9 +2614,7 @@
       <c r="A108">
         <v>108</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B108" s="1"/>
       <c r="C108">
         <v>2</v>
       </c>
@@ -2823,9 +2643,7 @@
       <c r="A109">
         <v>109</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B109" s="1"/>
       <c r="C109">
         <v>2</v>
       </c>
@@ -2854,9 +2672,7 @@
       <c r="A110">
         <v>110</v>
       </c>
-      <c r="B110" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B110" s="1"/>
       <c r="C110">
         <v>2</v>
       </c>
@@ -2885,9 +2701,7 @@
       <c r="A111">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B111" s="1"/>
       <c r="C111">
         <v>2</v>
       </c>
@@ -2916,9 +2730,7 @@
       <c r="A112">
         <v>112</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B112" s="1"/>
       <c r="C112">
         <v>2</v>
       </c>
@@ -2947,9 +2759,7 @@
       <c r="A113">
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B113" s="1"/>
       <c r="C113">
         <v>2</v>
       </c>
@@ -2978,9 +2788,7 @@
       <c r="A114">
         <v>114</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B114" s="1"/>
       <c r="C114">
         <v>2</v>
       </c>
@@ -3009,9 +2817,7 @@
       <c r="A115">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B115" s="1"/>
       <c r="C115">
         <v>2</v>
       </c>
@@ -3040,9 +2846,7 @@
       <c r="A116">
         <v>116</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="C116">
         <v>2</v>
       </c>
@@ -3071,9 +2875,7 @@
       <c r="A117">
         <v>117</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="C117">
         <v>2</v>
       </c>
@@ -3102,9 +2904,7 @@
       <c r="A118">
         <v>118</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B118" s="1"/>
       <c r="C118">
         <v>2</v>
       </c>
@@ -3133,9 +2933,7 @@
       <c r="A119">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B119" s="1"/>
       <c r="C119">
         <v>2</v>
       </c>
@@ -3164,9 +2962,7 @@
       <c r="A120">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B120" s="1"/>
       <c r="C120">
         <v>2</v>
       </c>
@@ -3195,9 +2991,7 @@
       <c r="A121">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B121" s="1"/>
       <c r="C121">
         <v>2</v>
       </c>
@@ -3226,9 +3020,7 @@
       <c r="A122">
         <v>122</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B122" s="1"/>
       <c r="C122">
         <v>2</v>
       </c>
@@ -3257,9 +3049,7 @@
       <c r="A123">
         <v>123</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B123" s="1"/>
       <c r="C123">
         <v>2</v>
       </c>
@@ -3288,9 +3078,7 @@
       <c r="A124">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B124" s="1"/>
       <c r="C124">
         <v>2</v>
       </c>
@@ -3319,9 +3107,7 @@
       <c r="A125">
         <v>125</v>
       </c>
-      <c r="B125" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B125" s="1"/>
       <c r="C125">
         <v>2</v>
       </c>
@@ -3366,9 +3152,7 @@
       <c r="A126">
         <v>126</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B126" s="1"/>
       <c r="C126">
         <v>2</v>
       </c>
@@ -3413,9 +3197,7 @@
       <c r="A127">
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B127" s="1"/>
       <c r="C127">
         <v>2</v>
       </c>
@@ -3460,9 +3242,7 @@
       <c r="A128">
         <v>128</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B128" s="1"/>
       <c r="C128">
         <v>2</v>
       </c>
@@ -3507,9 +3287,7 @@
       <c r="A129">
         <v>129</v>
       </c>
-      <c r="B129" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B129" s="1"/>
       <c r="C129">
         <v>2</v>
       </c>
@@ -3554,9 +3332,7 @@
       <c r="A130">
         <v>130</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B130" s="1"/>
       <c r="C130">
         <v>2</v>
       </c>
@@ -3601,9 +3377,7 @@
       <c r="A131">
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B131" s="1"/>
       <c r="C131">
         <v>2</v>
       </c>
@@ -3648,9 +3422,7 @@
       <c r="A132">
         <v>132</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B132" s="1"/>
       <c r="C132">
         <v>2</v>
       </c>
@@ -3695,9 +3467,7 @@
       <c r="A133">
         <v>133</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B133" s="1"/>
       <c r="C133">
         <v>2</v>
       </c>
@@ -3742,9 +3512,7 @@
       <c r="A134">
         <v>134</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B134" s="1"/>
       <c r="C134">
         <v>2</v>
       </c>
@@ -3789,9 +3557,7 @@
       <c r="A135">
         <v>135</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B135" s="1"/>
       <c r="C135">
         <v>2</v>
       </c>
@@ -3836,9 +3602,7 @@
       <c r="A136">
         <v>136</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B136" s="1"/>
       <c r="C136">
         <v>2</v>
       </c>
@@ -3883,9 +3647,7 @@
       <c r="A137">
         <v>137</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B137" s="1"/>
       <c r="C137">
         <v>2</v>
       </c>
@@ -3930,9 +3692,7 @@
       <c r="A138">
         <v>138</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B138" s="1"/>
       <c r="C138">
         <v>2</v>
       </c>
@@ -3977,9 +3737,7 @@
       <c r="A139">
         <v>139</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B139" s="1"/>
       <c r="C139">
         <v>2</v>
       </c>
@@ -4024,9 +3782,7 @@
       <c r="A140">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B140" s="1"/>
       <c r="C140">
         <v>2</v>
       </c>
@@ -4071,9 +3827,7 @@
       <c r="A141">
         <v>141</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B141" s="1"/>
       <c r="C141">
         <v>2</v>
       </c>
@@ -4118,9 +3872,7 @@
       <c r="A142">
         <v>142</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B142" s="1"/>
       <c r="C142">
         <v>2</v>
       </c>
@@ -4165,9 +3917,7 @@
       <c r="A143">
         <v>143</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B143" s="1"/>
       <c r="C143">
         <v>2</v>
       </c>
@@ -4212,9 +3962,7 @@
       <c r="A144">
         <v>144</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B144" s="1"/>
       <c r="C144">
         <v>2</v>
       </c>
@@ -4259,9 +4007,7 @@
       <c r="A145">
         <v>145</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B145" s="1"/>
       <c r="C145">
         <v>2</v>
       </c>
@@ -4306,9 +4052,7 @@
       <c r="A146">
         <v>146</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B146" s="1"/>
       <c r="C146">
         <v>2</v>
       </c>
@@ -4353,9 +4097,7 @@
       <c r="A147">
         <v>147</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B147" s="1"/>
       <c r="C147">
         <v>2</v>
       </c>
@@ -4400,9 +4142,7 @@
       <c r="A148">
         <v>148</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B148" s="1"/>
       <c r="C148">
         <v>2</v>
       </c>
@@ -4447,9 +4187,7 @@
       <c r="A149">
         <v>149</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B149" s="1"/>
       <c r="C149">
         <v>2</v>
       </c>
@@ -4494,9 +4232,7 @@
       <c r="A150">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B150" s="1"/>
       <c r="C150">
         <v>2</v>
       </c>
@@ -4541,9 +4277,7 @@
       <c r="A151">
         <v>151</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B151" s="1"/>
       <c r="C151">
         <v>2</v>
       </c>
@@ -4588,9 +4322,7 @@
       <c r="A152">
         <v>152</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B152" s="1"/>
       <c r="C152">
         <v>2</v>
       </c>
@@ -4635,9 +4367,7 @@
       <c r="A153">
         <v>153</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B153" s="1"/>
       <c r="C153">
         <v>2</v>
       </c>
@@ -4682,9 +4412,7 @@
       <c r="A154">
         <v>154</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B154" s="1"/>
       <c r="C154">
         <v>2</v>
       </c>
@@ -4729,9 +4457,7 @@
       <c r="A155">
         <v>155</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B155" s="1"/>
       <c r="C155">
         <v>2</v>
       </c>
@@ -4776,9 +4502,7 @@
       <c r="A156">
         <v>156</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B156" s="1"/>
       <c r="C156">
         <v>2</v>
       </c>
@@ -4823,9 +4547,7 @@
       <c r="A157">
         <v>157</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B157" s="1"/>
       <c r="C157">
         <v>2</v>
       </c>
@@ -4870,9 +4592,7 @@
       <c r="A158">
         <v>158</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B158" s="1"/>
       <c r="C158">
         <v>2</v>
       </c>
@@ -4917,9 +4637,7 @@
       <c r="A159">
         <v>159</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B159" s="1"/>
       <c r="C159">
         <v>2</v>
       </c>
@@ -4964,9 +4682,7 @@
       <c r="A160">
         <v>160</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B160" s="1"/>
       <c r="C160">
         <v>2</v>
       </c>
@@ -5011,9 +4727,7 @@
       <c r="A161">
         <v>161</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B161" s="1"/>
       <c r="C161">
         <v>2</v>
       </c>
@@ -5058,9 +4772,7 @@
       <c r="A162">
         <v>162</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B162" s="1"/>
       <c r="C162">
         <v>2</v>
       </c>
@@ -5105,9 +4817,7 @@
       <c r="A163">
         <v>163</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B163" s="1"/>
       <c r="C163">
         <v>2</v>
       </c>
@@ -5152,9 +4862,7 @@
       <c r="A164">
         <v>164</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B164" s="1"/>
       <c r="C164">
         <v>2</v>
       </c>
@@ -5199,9 +4907,7 @@
       <c r="A165">
         <v>165</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B165" s="1"/>
       <c r="C165">
         <v>2</v>
       </c>
@@ -5246,9 +4952,7 @@
       <c r="A166">
         <v>166</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B166" s="1"/>
       <c r="C166">
         <v>2</v>
       </c>
@@ -5293,9 +4997,7 @@
       <c r="A167">
         <v>167</v>
       </c>
-      <c r="B167" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B167" s="1"/>
       <c r="C167">
         <v>2</v>
       </c>
@@ -5340,9 +5042,7 @@
       <c r="A168">
         <v>168</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B168" s="1"/>
       <c r="C168">
         <v>2</v>
       </c>
@@ -5387,9 +5087,7 @@
       <c r="A169">
         <v>169</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B169" s="1"/>
       <c r="C169">
         <v>2</v>
       </c>
@@ -5434,9 +5132,7 @@
       <c r="A170">
         <v>170</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B170" s="1"/>
       <c r="C170">
         <v>2</v>
       </c>
@@ -5481,9 +5177,7 @@
       <c r="A171">
         <v>171</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B171" s="1"/>
       <c r="C171">
         <v>2</v>
       </c>
@@ -5528,9 +5222,7 @@
       <c r="A172">
         <v>172</v>
       </c>
-      <c r="B172" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B172" s="1"/>
       <c r="C172">
         <v>2</v>
       </c>
@@ -5575,9 +5267,7 @@
       <c r="A173">
         <v>173</v>
       </c>
-      <c r="B173" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B173" s="1"/>
       <c r="C173">
         <v>2</v>
       </c>
@@ -5622,9 +5312,7 @@
       <c r="A174">
         <v>174</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B174" s="1"/>
       <c r="C174">
         <v>2</v>
       </c>
@@ -5669,9 +5357,7 @@
       <c r="A175">
         <v>175</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B175" s="1"/>
       <c r="C175">
         <v>2</v>
       </c>
@@ -5716,9 +5402,7 @@
       <c r="A176">
         <v>176</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B176" s="1"/>
       <c r="C176">
         <v>2</v>
       </c>
@@ -5763,9 +5447,7 @@
       <c r="A177">
         <v>177</v>
       </c>
-      <c r="B177" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B177" s="1"/>
       <c r="C177">
         <v>2</v>
       </c>
@@ -5810,9 +5492,7 @@
       <c r="A178">
         <v>178</v>
       </c>
-      <c r="B178" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B178" s="1"/>
       <c r="C178">
         <v>2</v>
       </c>
@@ -5857,9 +5537,7 @@
       <c r="A179">
         <v>179</v>
       </c>
-      <c r="B179" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B179" s="1"/>
       <c r="C179">
         <v>2</v>
       </c>
@@ -5904,9 +5582,7 @@
       <c r="A180">
         <v>180</v>
       </c>
-      <c r="B180" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B180" s="1"/>
       <c r="C180">
         <v>2</v>
       </c>
@@ -5951,9 +5627,7 @@
       <c r="A181">
         <v>181</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B181" s="1"/>
       <c r="C181">
         <v>2</v>
       </c>
@@ -5998,9 +5672,7 @@
       <c r="A182">
         <v>182</v>
       </c>
-      <c r="B182" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B182" s="1"/>
       <c r="C182">
         <v>2</v>
       </c>
@@ -6045,9 +5717,7 @@
       <c r="A183">
         <v>183</v>
       </c>
-      <c r="B183" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B183" s="1"/>
       <c r="C183">
         <v>2</v>
       </c>
@@ -6092,9 +5762,7 @@
       <c r="A184">
         <v>184</v>
       </c>
-      <c r="B184" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B184" s="1"/>
       <c r="C184">
         <v>2</v>
       </c>
@@ -6139,9 +5807,7 @@
       <c r="A185">
         <v>185</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B185" s="1"/>
       <c r="C185">
         <v>2</v>
       </c>
@@ -6186,9 +5852,7 @@
       <c r="A186">
         <v>186</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B186" s="1"/>
       <c r="C186">
         <v>2</v>
       </c>
@@ -6233,9 +5897,7 @@
       <c r="A187">
         <v>187</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B187" s="1"/>
       <c r="C187">
         <v>2</v>
       </c>
@@ -6280,9 +5942,7 @@
       <c r="A188">
         <v>188</v>
       </c>
-      <c r="B188" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B188" s="1"/>
       <c r="C188">
         <v>2</v>
       </c>
@@ -6327,9 +5987,7 @@
       <c r="A189">
         <v>189</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B189" s="1"/>
       <c r="C189">
         <v>2</v>
       </c>
@@ -6374,9 +6032,7 @@
       <c r="A190">
         <v>190</v>
       </c>
-      <c r="B190" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B190" s="1"/>
       <c r="C190">
         <v>2</v>
       </c>
@@ -6421,9 +6077,7 @@
       <c r="A191">
         <v>191</v>
       </c>
-      <c r="B191" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B191" s="1"/>
       <c r="C191">
         <v>2</v>
       </c>
@@ -6468,9 +6122,7 @@
       <c r="A192">
         <v>192</v>
       </c>
-      <c r="B192" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B192" s="1"/>
       <c r="C192">
         <v>2</v>
       </c>
@@ -6515,9 +6167,7 @@
       <c r="A193">
         <v>193</v>
       </c>
-      <c r="B193" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B193" s="1"/>
       <c r="C193">
         <v>2</v>
       </c>
@@ -6562,9 +6212,7 @@
       <c r="A194">
         <v>194</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B194" s="1"/>
       <c r="C194">
         <v>2</v>
       </c>
@@ -6609,9 +6257,7 @@
       <c r="A195">
         <v>195</v>
       </c>
-      <c r="B195" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B195" s="1"/>
       <c r="C195">
         <v>2</v>
       </c>
@@ -6656,9 +6302,7 @@
       <c r="A196">
         <v>196</v>
       </c>
-      <c r="B196" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B196" s="1"/>
       <c r="C196">
         <v>2</v>
       </c>
@@ -6703,9 +6347,7 @@
       <c r="A197">
         <v>197</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B197" s="1"/>
       <c r="C197">
         <v>2</v>
       </c>
@@ -6750,9 +6392,7 @@
       <c r="A198">
         <v>198</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B198" s="1"/>
       <c r="C198">
         <v>2</v>
       </c>
@@ -6797,9 +6437,7 @@
       <c r="A199">
         <v>199</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B199" s="1"/>
       <c r="C199">
         <v>2</v>
       </c>
@@ -6844,9 +6482,7 @@
       <c r="A200">
         <v>200</v>
       </c>
-      <c r="B200" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B200" s="1"/>
       <c r="C200">
         <v>2</v>
       </c>
@@ -6891,9 +6527,7 @@
       <c r="A201">
         <v>201</v>
       </c>
-      <c r="B201" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B201" s="1"/>
       <c r="C201">
         <v>2</v>
       </c>
@@ -6938,9 +6572,7 @@
       <c r="A202">
         <v>202</v>
       </c>
-      <c r="B202" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B202" s="1"/>
       <c r="C202">
         <v>2</v>
       </c>
@@ -6985,9 +6617,7 @@
       <c r="A203">
         <v>203</v>
       </c>
-      <c r="B203" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B203" s="1"/>
       <c r="C203">
         <v>2</v>
       </c>
@@ -7032,9 +6662,7 @@
       <c r="A204">
         <v>204</v>
       </c>
-      <c r="B204" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B204" s="1"/>
       <c r="C204">
         <v>2</v>
       </c>
@@ -7079,9 +6707,7 @@
       <c r="A205">
         <v>205</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B205" s="1"/>
       <c r="C205">
         <v>2</v>
       </c>
@@ -7126,9 +6752,7 @@
       <c r="A206">
         <v>206</v>
       </c>
-      <c r="B206" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B206" s="1"/>
       <c r="C206">
         <v>2</v>
       </c>
@@ -7173,9 +6797,7 @@
       <c r="A207">
         <v>207</v>
       </c>
-      <c r="B207" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B207" s="1"/>
       <c r="C207">
         <v>2</v>
       </c>
@@ -7220,9 +6842,7 @@
       <c r="A208">
         <v>208</v>
       </c>
-      <c r="B208" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B208" s="1"/>
       <c r="C208">
         <v>2</v>
       </c>
@@ -7267,9 +6887,7 @@
       <c r="A209">
         <v>209</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B209" s="1"/>
       <c r="C209">
         <v>2</v>
       </c>
@@ -7314,9 +6932,7 @@
       <c r="A210">
         <v>210</v>
       </c>
-      <c r="B210" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B210" s="1"/>
       <c r="C210">
         <v>2</v>
       </c>
@@ -7361,9 +6977,7 @@
       <c r="A211">
         <v>211</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B211" s="1"/>
       <c r="C211">
         <v>2</v>
       </c>
@@ -7408,9 +7022,7 @@
       <c r="A212">
         <v>212</v>
       </c>
-      <c r="B212" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B212" s="1"/>
       <c r="C212">
         <v>2</v>
       </c>
@@ -7455,9 +7067,7 @@
       <c r="A213">
         <v>213</v>
       </c>
-      <c r="B213" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B213" s="1"/>
       <c r="C213">
         <v>2</v>
       </c>
@@ -7502,9 +7112,7 @@
       <c r="A214">
         <v>214</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B214" s="1"/>
       <c r="C214">
         <v>2</v>
       </c>
@@ -7549,9 +7157,7 @@
       <c r="A215">
         <v>215</v>
       </c>
-      <c r="B215" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B215" s="1"/>
       <c r="C215">
         <v>2</v>
       </c>
@@ -7596,9 +7202,7 @@
       <c r="A216">
         <v>216</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B216" s="1"/>
       <c r="C216">
         <v>2</v>
       </c>
@@ -7643,9 +7247,7 @@
       <c r="A217">
         <v>217</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B217" s="1"/>
       <c r="C217">
         <v>2</v>
       </c>
@@ -7690,9 +7292,7 @@
       <c r="A218">
         <v>218</v>
       </c>
-      <c r="B218" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B218" s="1"/>
       <c r="C218">
         <v>2</v>
       </c>
@@ -7737,9 +7337,7 @@
       <c r="A219">
         <v>219</v>
       </c>
-      <c r="B219" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B219" s="1"/>
       <c r="C219">
         <v>2</v>
       </c>
@@ -7784,9 +7382,7 @@
       <c r="A220">
         <v>220</v>
       </c>
-      <c r="B220" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B220" s="1"/>
       <c r="C220">
         <v>2</v>
       </c>
@@ -7831,9 +7427,7 @@
       <c r="A221">
         <v>221</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B221" s="1"/>
       <c r="C221">
         <v>2</v>
       </c>
@@ -7878,9 +7472,7 @@
       <c r="A222">
         <v>222</v>
       </c>
-      <c r="B222" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B222" s="1"/>
       <c r="C222">
         <v>2</v>
       </c>
@@ -7925,9 +7517,7 @@
       <c r="A223">
         <v>223</v>
       </c>
-      <c r="B223" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B223" s="1"/>
       <c r="C223">
         <v>2</v>
       </c>
@@ -7972,9 +7562,7 @@
       <c r="A224">
         <v>224</v>
       </c>
-      <c r="B224" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B224" s="1"/>
       <c r="C224">
         <v>2</v>
       </c>
@@ -8019,9 +7607,7 @@
       <c r="A225">
         <v>225</v>
       </c>
-      <c r="B225" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B225" s="1"/>
       <c r="C225">
         <v>2</v>
       </c>
@@ -8066,9 +7652,7 @@
       <c r="A226">
         <v>226</v>
       </c>
-      <c r="B226" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B226" s="1"/>
       <c r="C226">
         <v>2</v>
       </c>
@@ -8113,9 +7697,7 @@
       <c r="A227">
         <v>227</v>
       </c>
-      <c r="B227" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B227" s="1"/>
       <c r="C227">
         <v>2</v>
       </c>
@@ -8160,9 +7742,7 @@
       <c r="A228">
         <v>228</v>
       </c>
-      <c r="B228" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B228" s="1"/>
       <c r="C228">
         <v>2</v>
       </c>
@@ -8207,9 +7787,7 @@
       <c r="A229">
         <v>229</v>
       </c>
-      <c r="B229" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B229" s="1"/>
       <c r="C229">
         <v>2</v>
       </c>
@@ -8254,9 +7832,7 @@
       <c r="A230">
         <v>230</v>
       </c>
-      <c r="B230" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B230" s="1"/>
       <c r="C230">
         <v>2</v>
       </c>
@@ -8301,9 +7877,7 @@
       <c r="A231">
         <v>231</v>
       </c>
-      <c r="B231" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B231" s="1"/>
       <c r="C231">
         <v>2</v>
       </c>
@@ -8348,9 +7922,7 @@
       <c r="A232">
         <v>232</v>
       </c>
-      <c r="B232" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B232" s="1"/>
       <c r="C232">
         <v>2</v>
       </c>
@@ -8395,9 +7967,7 @@
       <c r="A233">
         <v>233</v>
       </c>
-      <c r="B233" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B233" s="1"/>
       <c r="C233">
         <v>2</v>
       </c>
@@ -8442,9 +8012,7 @@
       <c r="A234">
         <v>234</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B234" s="1"/>
       <c r="C234">
         <v>2</v>
       </c>
@@ -8489,9 +8057,7 @@
       <c r="A235">
         <v>235</v>
       </c>
-      <c r="B235" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B235" s="1"/>
       <c r="C235">
         <v>2</v>
       </c>
@@ -8536,9 +8102,7 @@
       <c r="A236">
         <v>236</v>
       </c>
-      <c r="B236" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B236" s="1"/>
       <c r="C236">
         <v>2</v>
       </c>
@@ -8583,9 +8147,7 @@
       <c r="A237">
         <v>237</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B237" s="1"/>
       <c r="C237">
         <v>2</v>
       </c>
@@ -8630,9 +8192,7 @@
       <c r="A238">
         <v>238</v>
       </c>
-      <c r="B238" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B238" s="1"/>
       <c r="C238">
         <v>2</v>
       </c>
@@ -8677,9 +8237,7 @@
       <c r="A239">
         <v>239</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B239" s="1"/>
       <c r="C239">
         <v>2</v>
       </c>
@@ -8724,9 +8282,7 @@
       <c r="A240">
         <v>240</v>
       </c>
-      <c r="B240" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B240" s="1"/>
       <c r="C240">
         <v>2</v>
       </c>
@@ -8771,9 +8327,7 @@
       <c r="A241">
         <v>241</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B241" s="1"/>
       <c r="C241">
         <v>2</v>
       </c>
@@ -8818,9 +8372,7 @@
       <c r="A242">
         <v>242</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B242" s="1"/>
       <c r="C242">
         <v>2</v>
       </c>
@@ -8865,9 +8417,7 @@
       <c r="A243">
         <v>243</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B243" s="1"/>
       <c r="C243">
         <v>2</v>
       </c>
@@ -8912,9 +8462,7 @@
       <c r="A244">
         <v>244</v>
       </c>
-      <c r="B244" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B244" s="1"/>
       <c r="C244">
         <v>2</v>
       </c>
@@ -8959,9 +8507,7 @@
       <c r="A245">
         <v>245</v>
       </c>
-      <c r="B245" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B245" s="1"/>
       <c r="C245">
         <v>2</v>
       </c>
@@ -9006,9 +8552,7 @@
       <c r="A246">
         <v>246</v>
       </c>
-      <c r="B246" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B246" s="1"/>
       <c r="C246">
         <v>2</v>
       </c>
@@ -9053,9 +8597,7 @@
       <c r="A247">
         <v>247</v>
       </c>
-      <c r="B247" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B247" s="1"/>
       <c r="C247">
         <v>2</v>
       </c>
@@ -9100,9 +8642,7 @@
       <c r="A248">
         <v>248</v>
       </c>
-      <c r="B248" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B248" s="1"/>
       <c r="C248">
         <v>2</v>
       </c>
@@ -9147,9 +8687,7 @@
       <c r="A249">
         <v>249</v>
       </c>
-      <c r="B249" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B249" s="1"/>
       <c r="C249">
         <v>2</v>
       </c>
@@ -9194,9 +8732,7 @@
       <c r="A250">
         <v>250</v>
       </c>
-      <c r="B250" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B250" s="1"/>
       <c r="C250">
         <v>2</v>
       </c>
@@ -9257,9 +8793,7 @@
       <c r="A251">
         <v>251</v>
       </c>
-      <c r="B251" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B251" s="1"/>
       <c r="C251">
         <v>2</v>
       </c>
@@ -9320,9 +8854,7 @@
       <c r="A252">
         <v>252</v>
       </c>
-      <c r="B252" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B252" s="1"/>
       <c r="C252">
         <v>2</v>
       </c>
@@ -9383,9 +8915,7 @@
       <c r="A253">
         <v>253</v>
       </c>
-      <c r="B253" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B253" s="1"/>
       <c r="C253">
         <v>2</v>
       </c>
@@ -9446,9 +8976,7 @@
       <c r="A254">
         <v>254</v>
       </c>
-      <c r="B254" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B254" s="1"/>
       <c r="C254">
         <v>2</v>
       </c>
@@ -9509,9 +9037,7 @@
       <c r="A255">
         <v>255</v>
       </c>
-      <c r="B255" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B255" s="1"/>
       <c r="C255">
         <v>2</v>
       </c>
@@ -9572,9 +9098,7 @@
       <c r="A256">
         <v>256</v>
       </c>
-      <c r="B256" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B256" s="1"/>
       <c r="C256">
         <v>2</v>
       </c>
@@ -9635,9 +9159,7 @@
       <c r="A257">
         <v>257</v>
       </c>
-      <c r="B257" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B257" s="1"/>
       <c r="C257">
         <v>2</v>
       </c>
@@ -9698,9 +9220,7 @@
       <c r="A258">
         <v>258</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B258" s="1"/>
       <c r="C258">
         <v>2</v>
       </c>
@@ -9761,9 +9281,7 @@
       <c r="A259">
         <v>259</v>
       </c>
-      <c r="B259" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B259" s="1"/>
       <c r="C259">
         <v>2</v>
       </c>
@@ -9824,9 +9342,7 @@
       <c r="A260">
         <v>260</v>
       </c>
-      <c r="B260" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B260" s="1"/>
       <c r="C260">
         <v>2</v>
       </c>
@@ -9887,9 +9403,7 @@
       <c r="A261">
         <v>261</v>
       </c>
-      <c r="B261" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B261" s="1"/>
       <c r="C261">
         <v>2</v>
       </c>
@@ -9950,9 +9464,7 @@
       <c r="A262">
         <v>262</v>
       </c>
-      <c r="B262" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B262" s="1"/>
       <c r="C262">
         <v>2</v>
       </c>
@@ -10013,9 +9525,7 @@
       <c r="A263">
         <v>263</v>
       </c>
-      <c r="B263" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B263" s="1"/>
       <c r="C263">
         <v>2</v>
       </c>
@@ -10076,9 +9586,7 @@
       <c r="A264">
         <v>264</v>
       </c>
-      <c r="B264" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B264" s="1"/>
       <c r="C264">
         <v>2</v>
       </c>
@@ -10139,9 +9647,7 @@
       <c r="A265">
         <v>265</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B265" s="1"/>
       <c r="C265">
         <v>2</v>
       </c>
@@ -10202,9 +9708,7 @@
       <c r="A266">
         <v>266</v>
       </c>
-      <c r="B266" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B266" s="1"/>
       <c r="C266">
         <v>2</v>
       </c>
@@ -10265,9 +9769,7 @@
       <c r="A267">
         <v>267</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B267" s="1"/>
       <c r="C267">
         <v>2</v>
       </c>
@@ -10328,9 +9830,7 @@
       <c r="A268">
         <v>268</v>
       </c>
-      <c r="B268" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B268" s="1"/>
       <c r="C268">
         <v>2</v>
       </c>
@@ -10391,9 +9891,7 @@
       <c r="A269">
         <v>269</v>
       </c>
-      <c r="B269" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B269" s="1"/>
       <c r="C269">
         <v>2</v>
       </c>
@@ -10454,9 +9952,7 @@
       <c r="A270">
         <v>270</v>
       </c>
-      <c r="B270" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B270" s="1"/>
       <c r="C270">
         <v>2</v>
       </c>
@@ -10517,9 +10013,7 @@
       <c r="A271">
         <v>271</v>
       </c>
-      <c r="B271" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B271" s="1"/>
       <c r="C271">
         <v>2</v>
       </c>
@@ -10580,9 +10074,7 @@
       <c r="A272">
         <v>272</v>
       </c>
-      <c r="B272" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B272" s="1"/>
       <c r="C272">
         <v>2</v>
       </c>
@@ -10643,9 +10135,7 @@
       <c r="A273">
         <v>273</v>
       </c>
-      <c r="B273" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B273" s="1"/>
       <c r="C273">
         <v>2</v>
       </c>
@@ -10706,9 +10196,7 @@
       <c r="A274">
         <v>274</v>
       </c>
-      <c r="B274" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B274" s="1"/>
       <c r="C274">
         <v>2</v>
       </c>
@@ -10769,9 +10257,7 @@
       <c r="A275">
         <v>275</v>
       </c>
-      <c r="B275" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B275" s="1"/>
       <c r="C275">
         <v>2</v>
       </c>
@@ -10832,9 +10318,7 @@
       <c r="A276">
         <v>276</v>
       </c>
-      <c r="B276" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B276" s="1"/>
       <c r="C276">
         <v>2</v>
       </c>
@@ -10895,9 +10379,7 @@
       <c r="A277">
         <v>277</v>
       </c>
-      <c r="B277" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B277" s="1"/>
       <c r="C277">
         <v>2</v>
       </c>
@@ -10958,9 +10440,7 @@
       <c r="A278">
         <v>278</v>
       </c>
-      <c r="B278" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B278" s="1"/>
       <c r="C278">
         <v>2</v>
       </c>
@@ -11021,9 +10501,7 @@
       <c r="A279">
         <v>279</v>
       </c>
-      <c r="B279" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B279" s="1"/>
       <c r="C279">
         <v>2</v>
       </c>
@@ -11084,9 +10562,7 @@
       <c r="A280">
         <v>280</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B280" s="1"/>
       <c r="C280">
         <v>2</v>
       </c>
@@ -11147,9 +10623,7 @@
       <c r="A281">
         <v>281</v>
       </c>
-      <c r="B281" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B281" s="1"/>
       <c r="C281">
         <v>2</v>
       </c>
@@ -11210,9 +10684,7 @@
       <c r="A282">
         <v>282</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B282" s="1"/>
       <c r="C282">
         <v>2</v>
       </c>
@@ -11273,9 +10745,7 @@
       <c r="A283">
         <v>283</v>
       </c>
-      <c r="B283" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B283" s="1"/>
       <c r="C283">
         <v>2</v>
       </c>
@@ -11336,9 +10806,7 @@
       <c r="A284">
         <v>284</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B284" s="1"/>
       <c r="C284">
         <v>2</v>
       </c>
@@ -11399,9 +10867,7 @@
       <c r="A285">
         <v>285</v>
       </c>
-      <c r="B285" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B285" s="1"/>
       <c r="C285">
         <v>2</v>
       </c>
@@ -11462,9 +10928,7 @@
       <c r="A286">
         <v>286</v>
       </c>
-      <c r="B286" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B286" s="1"/>
       <c r="C286">
         <v>2</v>
       </c>
@@ -11525,9 +10989,7 @@
       <c r="A287">
         <v>287</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B287" s="1"/>
       <c r="C287">
         <v>2</v>
       </c>
@@ -11588,9 +11050,7 @@
       <c r="A288">
         <v>288</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B288" s="1"/>
       <c r="C288">
         <v>2</v>
       </c>
@@ -11651,9 +11111,7 @@
       <c r="A289">
         <v>289</v>
       </c>
-      <c r="B289" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B289" s="1"/>
       <c r="C289">
         <v>2</v>
       </c>
@@ -11714,9 +11172,7 @@
       <c r="A290">
         <v>290</v>
       </c>
-      <c r="B290" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B290" s="1"/>
       <c r="C290">
         <v>2</v>
       </c>
@@ -11777,9 +11233,7 @@
       <c r="A291">
         <v>291</v>
       </c>
-      <c r="B291" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B291" s="1"/>
       <c r="C291">
         <v>2</v>
       </c>
@@ -11840,9 +11294,7 @@
       <c r="A292">
         <v>292</v>
       </c>
-      <c r="B292" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B292" s="1"/>
       <c r="C292">
         <v>2</v>
       </c>
@@ -11903,9 +11355,7 @@
       <c r="A293">
         <v>293</v>
       </c>
-      <c r="B293" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B293" s="1"/>
       <c r="C293">
         <v>2</v>
       </c>
@@ -11966,9 +11416,7 @@
       <c r="A294">
         <v>294</v>
       </c>
-      <c r="B294" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B294" s="1"/>
       <c r="C294">
         <v>2</v>
       </c>
@@ -12029,9 +11477,7 @@
       <c r="A295">
         <v>295</v>
       </c>
-      <c r="B295" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B295" s="1"/>
       <c r="C295">
         <v>2</v>
       </c>
@@ -12092,9 +11538,7 @@
       <c r="A296">
         <v>296</v>
       </c>
-      <c r="B296" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B296" s="1"/>
       <c r="C296">
         <v>2</v>
       </c>
@@ -12155,9 +11599,7 @@
       <c r="A297">
         <v>297</v>
       </c>
-      <c r="B297" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B297" s="1"/>
       <c r="C297">
         <v>2</v>
       </c>
@@ -12218,9 +11660,7 @@
       <c r="A298">
         <v>298</v>
       </c>
-      <c r="B298" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B298" s="1"/>
       <c r="C298">
         <v>2</v>
       </c>
@@ -12281,9 +11721,7 @@
       <c r="A299">
         <v>299</v>
       </c>
-      <c r="B299" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B299" s="1"/>
       <c r="C299">
         <v>2</v>
       </c>
@@ -12344,9 +11782,7 @@
       <c r="A300">
         <v>300</v>
       </c>
-      <c r="B300" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B300" s="1"/>
       <c r="C300">
         <v>2</v>
       </c>
@@ -12407,9 +11843,7 @@
       <c r="A301">
         <v>301</v>
       </c>
-      <c r="B301" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B301" s="1"/>
       <c r="C301">
         <v>2</v>
       </c>
@@ -12470,9 +11904,7 @@
       <c r="A302">
         <v>302</v>
       </c>
-      <c r="B302" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B302" s="1"/>
       <c r="C302">
         <v>2</v>
       </c>
@@ -12533,9 +11965,7 @@
       <c r="A303">
         <v>303</v>
       </c>
-      <c r="B303" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B303" s="1"/>
       <c r="C303">
         <v>2</v>
       </c>
@@ -12596,9 +12026,7 @@
       <c r="A304">
         <v>304</v>
       </c>
-      <c r="B304" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B304" s="1"/>
       <c r="C304">
         <v>2</v>
       </c>
@@ -12659,9 +12087,7 @@
       <c r="A305">
         <v>305</v>
       </c>
-      <c r="B305" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B305" s="1"/>
       <c r="C305">
         <v>2</v>
       </c>
@@ -12722,9 +12148,7 @@
       <c r="A306">
         <v>306</v>
       </c>
-      <c r="B306" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B306" s="1"/>
       <c r="C306">
         <v>2</v>
       </c>
@@ -12785,9 +12209,7 @@
       <c r="A307">
         <v>307</v>
       </c>
-      <c r="B307" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B307" s="1"/>
       <c r="C307">
         <v>2</v>
       </c>
@@ -12848,9 +12270,7 @@
       <c r="A308">
         <v>308</v>
       </c>
-      <c r="B308" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B308" s="1"/>
       <c r="C308">
         <v>2</v>
       </c>
@@ -12911,9 +12331,7 @@
       <c r="A309">
         <v>309</v>
       </c>
-      <c r="B309" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B309" s="1"/>
       <c r="C309">
         <v>2</v>
       </c>
@@ -12974,9 +12392,7 @@
       <c r="A310">
         <v>310</v>
       </c>
-      <c r="B310" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B310" s="1"/>
       <c r="C310">
         <v>2</v>
       </c>
@@ -13037,9 +12453,7 @@
       <c r="A311">
         <v>311</v>
       </c>
-      <c r="B311" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B311" s="1"/>
       <c r="C311">
         <v>2</v>
       </c>
@@ -13100,9 +12514,7 @@
       <c r="A312">
         <v>312</v>
       </c>
-      <c r="B312" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B312" s="1"/>
       <c r="C312">
         <v>2</v>
       </c>
@@ -13163,9 +12575,7 @@
       <c r="A313">
         <v>313</v>
       </c>
-      <c r="B313" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B313" s="1"/>
       <c r="C313">
         <v>2</v>
       </c>
@@ -13226,9 +12636,7 @@
       <c r="A314">
         <v>314</v>
       </c>
-      <c r="B314" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B314" s="1"/>
       <c r="C314">
         <v>2</v>
       </c>
@@ -13289,9 +12697,7 @@
       <c r="A315">
         <v>315</v>
       </c>
-      <c r="B315" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B315" s="1"/>
       <c r="C315">
         <v>2</v>
       </c>
@@ -13352,9 +12758,7 @@
       <c r="A316">
         <v>316</v>
       </c>
-      <c r="B316" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B316" s="1"/>
       <c r="C316">
         <v>2</v>
       </c>
@@ -13415,9 +12819,7 @@
       <c r="A317">
         <v>317</v>
       </c>
-      <c r="B317" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B317" s="1"/>
       <c r="C317">
         <v>2</v>
       </c>
@@ -13478,9 +12880,7 @@
       <c r="A318">
         <v>318</v>
       </c>
-      <c r="B318" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B318" s="1"/>
       <c r="C318">
         <v>2</v>
       </c>
@@ -13541,9 +12941,7 @@
       <c r="A319">
         <v>319</v>
       </c>
-      <c r="B319" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B319" s="1"/>
       <c r="C319">
         <v>2</v>
       </c>
@@ -13604,9 +13002,7 @@
       <c r="A320">
         <v>320</v>
       </c>
-      <c r="B320" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B320" s="1"/>
       <c r="C320">
         <v>2</v>
       </c>
@@ -13667,9 +13063,7 @@
       <c r="A321">
         <v>321</v>
       </c>
-      <c r="B321" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B321" s="1"/>
       <c r="C321">
         <v>2</v>
       </c>
@@ -13730,9 +13124,7 @@
       <c r="A322">
         <v>322</v>
       </c>
-      <c r="B322" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B322" s="1"/>
       <c r="C322">
         <v>2</v>
       </c>
@@ -13793,9 +13185,7 @@
       <c r="A323">
         <v>323</v>
       </c>
-      <c r="B323" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B323" s="1"/>
       <c r="C323">
         <v>2</v>
       </c>
@@ -13856,9 +13246,7 @@
       <c r="A324">
         <v>324</v>
       </c>
-      <c r="B324" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B324" s="1"/>
       <c r="C324">
         <v>2</v>
       </c>
@@ -13919,9 +13307,7 @@
       <c r="A325">
         <v>325</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B325" s="1"/>
       <c r="C325">
         <v>2</v>
       </c>
@@ -13982,9 +13368,7 @@
       <c r="A326">
         <v>326</v>
       </c>
-      <c r="B326" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B326" s="1"/>
       <c r="C326">
         <v>2</v>
       </c>
@@ -14045,9 +13429,7 @@
       <c r="A327">
         <v>327</v>
       </c>
-      <c r="B327" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B327" s="1"/>
       <c r="C327">
         <v>2</v>
       </c>
@@ -14108,9 +13490,7 @@
       <c r="A328">
         <v>328</v>
       </c>
-      <c r="B328" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B328" s="1"/>
       <c r="C328">
         <v>2</v>
       </c>
@@ -14171,9 +13551,7 @@
       <c r="A329">
         <v>329</v>
       </c>
-      <c r="B329" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B329" s="1"/>
       <c r="C329">
         <v>2</v>
       </c>
@@ -14234,9 +13612,7 @@
       <c r="A330">
         <v>330</v>
       </c>
-      <c r="B330" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B330" s="1"/>
       <c r="C330">
         <v>2</v>
       </c>
@@ -14297,9 +13673,7 @@
       <c r="A331">
         <v>331</v>
       </c>
-      <c r="B331" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B331" s="1"/>
       <c r="C331">
         <v>2</v>
       </c>
@@ -14360,9 +13734,7 @@
       <c r="A332">
         <v>332</v>
       </c>
-      <c r="B332" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B332" s="1"/>
       <c r="C332">
         <v>2</v>
       </c>
@@ -14423,9 +13795,7 @@
       <c r="A333">
         <v>333</v>
       </c>
-      <c r="B333" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B333" s="1"/>
       <c r="C333">
         <v>2</v>
       </c>
@@ -14486,9 +13856,7 @@
       <c r="A334">
         <v>334</v>
       </c>
-      <c r="B334" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B334" s="1"/>
       <c r="C334">
         <v>2</v>
       </c>
@@ -14549,9 +13917,7 @@
       <c r="A335">
         <v>335</v>
       </c>
-      <c r="B335" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B335" s="1"/>
       <c r="C335">
         <v>2</v>
       </c>
@@ -14612,9 +13978,7 @@
       <c r="A336">
         <v>336</v>
       </c>
-      <c r="B336" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B336" s="1"/>
       <c r="C336">
         <v>2</v>
       </c>
@@ -14675,9 +14039,7 @@
       <c r="A337">
         <v>337</v>
       </c>
-      <c r="B337" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B337" s="1"/>
       <c r="C337">
         <v>2</v>
       </c>
@@ -14738,9 +14100,7 @@
       <c r="A338">
         <v>338</v>
       </c>
-      <c r="B338" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B338" s="1"/>
       <c r="C338">
         <v>2</v>
       </c>
@@ -14801,9 +14161,7 @@
       <c r="A339">
         <v>339</v>
       </c>
-      <c r="B339" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B339" s="1"/>
       <c r="C339">
         <v>2</v>
       </c>
@@ -14864,9 +14222,7 @@
       <c r="A340">
         <v>340</v>
       </c>
-      <c r="B340" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B340" s="1"/>
       <c r="C340">
         <v>2</v>
       </c>
@@ -14927,9 +14283,7 @@
       <c r="A341">
         <v>341</v>
       </c>
-      <c r="B341" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B341" s="1"/>
       <c r="C341">
         <v>2</v>
       </c>
@@ -14990,9 +14344,7 @@
       <c r="A342">
         <v>342</v>
       </c>
-      <c r="B342" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B342" s="1"/>
       <c r="C342">
         <v>2</v>
       </c>
@@ -15053,9 +14405,7 @@
       <c r="A343">
         <v>343</v>
       </c>
-      <c r="B343" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B343" s="1"/>
       <c r="C343">
         <v>2</v>
       </c>
@@ -15116,9 +14466,7 @@
       <c r="A344">
         <v>344</v>
       </c>
-      <c r="B344" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B344" s="1"/>
       <c r="C344">
         <v>2</v>
       </c>
@@ -15179,9 +14527,7 @@
       <c r="A345">
         <v>345</v>
       </c>
-      <c r="B345" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B345" s="1"/>
       <c r="C345">
         <v>2</v>
       </c>
@@ -15242,9 +14588,7 @@
       <c r="A346">
         <v>346</v>
       </c>
-      <c r="B346" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B346" s="1"/>
       <c r="C346">
         <v>2</v>
       </c>
@@ -15305,9 +14649,7 @@
       <c r="A347">
         <v>347</v>
       </c>
-      <c r="B347" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B347" s="1"/>
       <c r="C347">
         <v>2</v>
       </c>
@@ -15368,9 +14710,7 @@
       <c r="A348">
         <v>348</v>
       </c>
-      <c r="B348" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B348" s="1"/>
       <c r="C348">
         <v>2</v>
       </c>
@@ -15431,9 +14771,7 @@
       <c r="A349">
         <v>349</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B349" s="1"/>
       <c r="C349">
         <v>2</v>
       </c>
@@ -15494,9 +14832,7 @@
       <c r="A350">
         <v>350</v>
       </c>
-      <c r="B350" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B350" s="1"/>
       <c r="C350">
         <v>2</v>
       </c>
@@ -15557,9 +14893,7 @@
       <c r="A351">
         <v>351</v>
       </c>
-      <c r="B351" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B351" s="1"/>
       <c r="C351">
         <v>2</v>
       </c>
@@ -15620,9 +14954,7 @@
       <c r="A352">
         <v>352</v>
       </c>
-      <c r="B352" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B352" s="1"/>
       <c r="C352">
         <v>2</v>
       </c>
@@ -15683,9 +15015,7 @@
       <c r="A353">
         <v>353</v>
       </c>
-      <c r="B353" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B353" s="1"/>
       <c r="C353">
         <v>2</v>
       </c>
@@ -15746,9 +15076,7 @@
       <c r="A354">
         <v>354</v>
       </c>
-      <c r="B354" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B354" s="1"/>
       <c r="C354">
         <v>2</v>
       </c>
@@ -15809,9 +15137,7 @@
       <c r="A355">
         <v>355</v>
       </c>
-      <c r="B355" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B355" s="1"/>
       <c r="C355">
         <v>2</v>
       </c>
@@ -15872,9 +15198,7 @@
       <c r="A356">
         <v>356</v>
       </c>
-      <c r="B356" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B356" s="1"/>
       <c r="C356">
         <v>2</v>
       </c>
@@ -15935,9 +15259,7 @@
       <c r="A357">
         <v>357</v>
       </c>
-      <c r="B357" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B357" s="1"/>
       <c r="C357">
         <v>2</v>
       </c>
@@ -15998,9 +15320,7 @@
       <c r="A358">
         <v>358</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B358" s="1"/>
       <c r="C358">
         <v>2</v>
       </c>
@@ -16061,9 +15381,7 @@
       <c r="A359">
         <v>359</v>
       </c>
-      <c r="B359" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B359" s="1"/>
       <c r="C359">
         <v>2</v>
       </c>
@@ -16124,9 +15442,7 @@
       <c r="A360">
         <v>360</v>
       </c>
-      <c r="B360" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B360" s="1"/>
       <c r="C360">
         <v>2</v>
       </c>
@@ -16187,9 +15503,7 @@
       <c r="A361">
         <v>361</v>
       </c>
-      <c r="B361" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B361" s="1"/>
       <c r="C361">
         <v>2</v>
       </c>
@@ -16250,9 +15564,7 @@
       <c r="A362">
         <v>362</v>
       </c>
-      <c r="B362" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B362" s="1"/>
       <c r="C362">
         <v>2</v>
       </c>
@@ -16313,9 +15625,7 @@
       <c r="A363">
         <v>363</v>
       </c>
-      <c r="B363" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B363" s="1"/>
       <c r="C363">
         <v>2</v>
       </c>
@@ -16376,9 +15686,7 @@
       <c r="A364">
         <v>364</v>
       </c>
-      <c r="B364" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B364" s="1"/>
       <c r="C364">
         <v>2</v>
       </c>
@@ -16439,9 +15747,7 @@
       <c r="A365">
         <v>365</v>
       </c>
-      <c r="B365" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B365" s="1"/>
       <c r="C365">
         <v>2</v>
       </c>
@@ -16502,9 +15808,7 @@
       <c r="A366">
         <v>366</v>
       </c>
-      <c r="B366" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B366" s="1"/>
       <c r="C366">
         <v>2</v>
       </c>
@@ -16565,9 +15869,7 @@
       <c r="A367">
         <v>367</v>
       </c>
-      <c r="B367" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B367" s="1"/>
       <c r="C367">
         <v>2</v>
       </c>
@@ -16628,9 +15930,7 @@
       <c r="A368">
         <v>368</v>
       </c>
-      <c r="B368" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B368" s="1"/>
       <c r="C368">
         <v>2</v>
       </c>
@@ -16691,9 +15991,7 @@
       <c r="A369">
         <v>369</v>
       </c>
-      <c r="B369" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B369" s="1"/>
       <c r="C369">
         <v>2</v>
       </c>
@@ -16754,9 +16052,7 @@
       <c r="A370">
         <v>370</v>
       </c>
-      <c r="B370" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B370" s="1"/>
       <c r="C370">
         <v>2</v>
       </c>
@@ -16817,9 +16113,7 @@
       <c r="A371">
         <v>371</v>
       </c>
-      <c r="B371" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B371" s="1"/>
       <c r="C371">
         <v>2</v>
       </c>
@@ -16880,9 +16174,7 @@
       <c r="A372">
         <v>372</v>
       </c>
-      <c r="B372" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B372" s="1"/>
       <c r="C372">
         <v>2</v>
       </c>
@@ -16943,9 +16235,7 @@
       <c r="A373">
         <v>373</v>
       </c>
-      <c r="B373" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B373" s="1"/>
       <c r="C373">
         <v>2</v>
       </c>
@@ -17006,9 +16296,7 @@
       <c r="A374">
         <v>374</v>
       </c>
-      <c r="B374" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B374" s="1"/>
       <c r="C374">
         <v>2</v>
       </c>
@@ -17069,9 +16357,7 @@
       <c r="A375">
         <v>375</v>
       </c>
-      <c r="B375" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B375" s="1"/>
       <c r="C375">
         <v>2</v>
       </c>
@@ -17132,9 +16418,7 @@
       <c r="A376">
         <v>376</v>
       </c>
-      <c r="B376" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B376" s="1"/>
       <c r="C376">
         <v>2</v>
       </c>
@@ -17195,9 +16479,7 @@
       <c r="A377">
         <v>377</v>
       </c>
-      <c r="B377" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B377" s="1"/>
       <c r="C377">
         <v>2</v>
       </c>
@@ -17258,9 +16540,7 @@
       <c r="A378">
         <v>378</v>
       </c>
-      <c r="B378" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B378" s="1"/>
       <c r="C378">
         <v>2</v>
       </c>
@@ -17321,9 +16601,7 @@
       <c r="A379">
         <v>379</v>
       </c>
-      <c r="B379" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B379" s="1"/>
       <c r="C379">
         <v>2</v>
       </c>
@@ -17384,9 +16662,7 @@
       <c r="A380">
         <v>380</v>
       </c>
-      <c r="B380" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B380" s="1"/>
       <c r="C380">
         <v>2</v>
       </c>
@@ -17447,9 +16723,7 @@
       <c r="A381">
         <v>381</v>
       </c>
-      <c r="B381" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B381" s="1"/>
       <c r="C381">
         <v>2</v>
       </c>
@@ -17510,9 +16784,7 @@
       <c r="A382">
         <v>382</v>
       </c>
-      <c r="B382" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B382" s="1"/>
       <c r="C382">
         <v>2</v>
       </c>
@@ -17573,9 +16845,7 @@
       <c r="A383">
         <v>383</v>
       </c>
-      <c r="B383" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B383" s="1"/>
       <c r="C383">
         <v>2</v>
       </c>
@@ -17636,9 +16906,7 @@
       <c r="A384">
         <v>384</v>
       </c>
-      <c r="B384" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B384" s="1"/>
       <c r="C384">
         <v>2</v>
       </c>
@@ -17699,9 +16967,7 @@
       <c r="A385">
         <v>385</v>
       </c>
-      <c r="B385" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B385" s="1"/>
       <c r="C385">
         <v>2</v>
       </c>
@@ -17762,9 +17028,7 @@
       <c r="A386">
         <v>386</v>
       </c>
-      <c r="B386" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B386" s="1"/>
       <c r="C386">
         <v>2</v>
       </c>
@@ -17825,9 +17089,7 @@
       <c r="A387">
         <v>387</v>
       </c>
-      <c r="B387" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B387" s="1"/>
       <c r="C387">
         <v>2</v>
       </c>
@@ -17888,9 +17150,7 @@
       <c r="A388">
         <v>388</v>
       </c>
-      <c r="B388" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B388" s="1"/>
       <c r="C388">
         <v>2</v>
       </c>
@@ -17951,9 +17211,7 @@
       <c r="A389">
         <v>389</v>
       </c>
-      <c r="B389" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B389" s="1"/>
       <c r="C389">
         <v>2</v>
       </c>
@@ -18014,9 +17272,7 @@
       <c r="A390">
         <v>390</v>
       </c>
-      <c r="B390" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B390" s="1"/>
       <c r="C390">
         <v>2</v>
       </c>
@@ -18077,9 +17333,7 @@
       <c r="A391">
         <v>391</v>
       </c>
-      <c r="B391" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B391" s="1"/>
       <c r="C391">
         <v>2</v>
       </c>
@@ -18140,9 +17394,7 @@
       <c r="A392">
         <v>392</v>
       </c>
-      <c r="B392" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B392" s="1"/>
       <c r="C392">
         <v>2</v>
       </c>
@@ -18203,9 +17455,7 @@
       <c r="A393">
         <v>393</v>
       </c>
-      <c r="B393" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B393" s="1"/>
       <c r="C393">
         <v>2</v>
       </c>
@@ -18266,9 +17516,7 @@
       <c r="A394">
         <v>394</v>
       </c>
-      <c r="B394" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B394" s="1"/>
       <c r="C394">
         <v>2</v>
       </c>
@@ -18329,9 +17577,7 @@
       <c r="A395">
         <v>395</v>
       </c>
-      <c r="B395" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B395" s="1"/>
       <c r="C395">
         <v>2</v>
       </c>
@@ -18392,9 +17638,7 @@
       <c r="A396">
         <v>396</v>
       </c>
-      <c r="B396" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B396" s="1"/>
       <c r="C396">
         <v>2</v>
       </c>
@@ -18455,9 +17699,7 @@
       <c r="A397">
         <v>397</v>
       </c>
-      <c r="B397" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B397" s="1"/>
       <c r="C397">
         <v>2</v>
       </c>
@@ -18518,9 +17760,7 @@
       <c r="A398">
         <v>398</v>
       </c>
-      <c r="B398" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B398" s="1"/>
       <c r="C398">
         <v>2</v>
       </c>
@@ -18581,9 +17821,7 @@
       <c r="A399">
         <v>399</v>
       </c>
-      <c r="B399" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B399" s="1"/>
       <c r="C399">
         <v>2</v>
       </c>
@@ -18644,9 +17882,7 @@
       <c r="A400">
         <v>400</v>
       </c>
-      <c r="B400" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B400" s="1"/>
       <c r="C400">
         <v>2</v>
       </c>
@@ -18707,9 +17943,7 @@
       <c r="A401">
         <v>401</v>
       </c>
-      <c r="B401" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B401" s="1"/>
       <c r="C401">
         <v>2</v>
       </c>
@@ -18770,9 +18004,7 @@
       <c r="A402">
         <v>402</v>
       </c>
-      <c r="B402" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B402" s="1"/>
       <c r="C402">
         <v>2</v>
       </c>
@@ -18833,9 +18065,7 @@
       <c r="A403">
         <v>403</v>
       </c>
-      <c r="B403" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B403" s="1"/>
       <c r="C403">
         <v>2</v>
       </c>
@@ -18896,9 +18126,7 @@
       <c r="A404">
         <v>404</v>
       </c>
-      <c r="B404" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B404" s="1"/>
       <c r="C404">
         <v>2</v>
       </c>
@@ -18959,9 +18187,7 @@
       <c r="A405">
         <v>405</v>
       </c>
-      <c r="B405" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B405" s="1"/>
       <c r="C405">
         <v>2</v>
       </c>
@@ -19022,9 +18248,7 @@
       <c r="A406">
         <v>406</v>
       </c>
-      <c r="B406" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B406" s="1"/>
       <c r="C406">
         <v>2</v>
       </c>
@@ -19085,9 +18309,7 @@
       <c r="A407">
         <v>407</v>
       </c>
-      <c r="B407" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B407" s="1"/>
       <c r="C407">
         <v>2</v>
       </c>
@@ -19148,9 +18370,7 @@
       <c r="A408">
         <v>408</v>
       </c>
-      <c r="B408" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B408" s="1"/>
       <c r="C408">
         <v>2</v>
       </c>
@@ -19211,9 +18431,7 @@
       <c r="A409">
         <v>409</v>
       </c>
-      <c r="B409" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B409" s="1"/>
       <c r="C409">
         <v>2</v>
       </c>
@@ -19274,9 +18492,7 @@
       <c r="A410">
         <v>410</v>
       </c>
-      <c r="B410" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B410" s="1"/>
       <c r="C410">
         <v>2</v>
       </c>
@@ -19337,9 +18553,7 @@
       <c r="A411">
         <v>411</v>
       </c>
-      <c r="B411" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B411" s="1"/>
       <c r="C411">
         <v>2</v>
       </c>
@@ -19400,9 +18614,7 @@
       <c r="A412">
         <v>412</v>
       </c>
-      <c r="B412" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B412" s="1"/>
       <c r="C412">
         <v>2</v>
       </c>
@@ -19463,9 +18675,7 @@
       <c r="A413">
         <v>413</v>
       </c>
-      <c r="B413" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B413" s="1"/>
       <c r="C413">
         <v>2</v>
       </c>
@@ -19526,9 +18736,7 @@
       <c r="A414">
         <v>414</v>
       </c>
-      <c r="B414" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B414" s="1"/>
       <c r="C414">
         <v>2</v>
       </c>
@@ -19589,9 +18797,7 @@
       <c r="A415">
         <v>415</v>
       </c>
-      <c r="B415" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B415" s="1"/>
       <c r="C415">
         <v>2</v>
       </c>
@@ -19652,9 +18858,7 @@
       <c r="A416">
         <v>416</v>
       </c>
-      <c r="B416" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B416" s="1"/>
       <c r="C416">
         <v>2</v>
       </c>
@@ -19715,9 +18919,7 @@
       <c r="A417">
         <v>417</v>
       </c>
-      <c r="B417" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B417" s="1"/>
       <c r="C417">
         <v>2</v>
       </c>
@@ -19778,9 +18980,7 @@
       <c r="A418">
         <v>418</v>
       </c>
-      <c r="B418" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B418" s="1"/>
       <c r="C418">
         <v>2</v>
       </c>
@@ -19841,9 +19041,7 @@
       <c r="A419">
         <v>419</v>
       </c>
-      <c r="B419" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B419" s="1"/>
       <c r="C419">
         <v>2</v>
       </c>
@@ -19904,9 +19102,7 @@
       <c r="A420">
         <v>420</v>
       </c>
-      <c r="B420" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B420" s="1"/>
       <c r="C420">
         <v>2</v>
       </c>
@@ -19967,9 +19163,7 @@
       <c r="A421">
         <v>421</v>
       </c>
-      <c r="B421" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B421" s="1"/>
       <c r="C421">
         <v>2</v>
       </c>
@@ -20030,9 +19224,7 @@
       <c r="A422">
         <v>422</v>
       </c>
-      <c r="B422" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B422" s="1"/>
       <c r="C422">
         <v>2</v>
       </c>
@@ -20093,9 +19285,7 @@
       <c r="A423">
         <v>423</v>
       </c>
-      <c r="B423" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B423" s="1"/>
       <c r="C423">
         <v>2</v>
       </c>
@@ -20156,9 +19346,7 @@
       <c r="A424">
         <v>424</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B424" s="1"/>
       <c r="C424">
         <v>2</v>
       </c>
@@ -20219,9 +19407,7 @@
       <c r="A425">
         <v>425</v>
       </c>
-      <c r="B425" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B425" s="1"/>
       <c r="C425">
         <v>2</v>
       </c>
@@ -20282,9 +19468,7 @@
       <c r="A426">
         <v>426</v>
       </c>
-      <c r="B426" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B426" s="1"/>
       <c r="C426">
         <v>2</v>
       </c>
@@ -20345,9 +19529,7 @@
       <c r="A427">
         <v>427</v>
       </c>
-      <c r="B427" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B427" s="1"/>
       <c r="C427">
         <v>2</v>
       </c>
@@ -20408,9 +19590,7 @@
       <c r="A428">
         <v>428</v>
       </c>
-      <c r="B428" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B428" s="1"/>
       <c r="C428">
         <v>2</v>
       </c>
@@ -20471,9 +19651,7 @@
       <c r="A429">
         <v>429</v>
       </c>
-      <c r="B429" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B429" s="1"/>
       <c r="C429">
         <v>2</v>
       </c>
@@ -20534,9 +19712,7 @@
       <c r="A430">
         <v>430</v>
       </c>
-      <c r="B430" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B430" s="1"/>
       <c r="C430">
         <v>2</v>
       </c>
@@ -20597,9 +19773,7 @@
       <c r="A431">
         <v>431</v>
       </c>
-      <c r="B431" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B431" s="1"/>
       <c r="C431">
         <v>2</v>
       </c>
@@ -20660,9 +19834,7 @@
       <c r="A432">
         <v>432</v>
       </c>
-      <c r="B432" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B432" s="1"/>
       <c r="C432">
         <v>2</v>
       </c>
@@ -20723,9 +19895,7 @@
       <c r="A433">
         <v>433</v>
       </c>
-      <c r="B433" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B433" s="1"/>
       <c r="C433">
         <v>2</v>
       </c>
@@ -20786,9 +19956,7 @@
       <c r="A434">
         <v>434</v>
       </c>
-      <c r="B434" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B434" s="1"/>
       <c r="C434">
         <v>2</v>
       </c>
@@ -20849,9 +20017,7 @@
       <c r="A435">
         <v>435</v>
       </c>
-      <c r="B435" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B435" s="1"/>
       <c r="C435">
         <v>2</v>
       </c>
@@ -20912,9 +20078,7 @@
       <c r="A436">
         <v>436</v>
       </c>
-      <c r="B436" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B436" s="1"/>
       <c r="C436">
         <v>2</v>
       </c>
@@ -20975,9 +20139,7 @@
       <c r="A437">
         <v>437</v>
       </c>
-      <c r="B437" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B437" s="1"/>
       <c r="C437">
         <v>2</v>
       </c>
@@ -21038,9 +20200,7 @@
       <c r="A438">
         <v>438</v>
       </c>
-      <c r="B438" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B438" s="1"/>
       <c r="C438">
         <v>2</v>
       </c>
@@ -21101,9 +20261,7 @@
       <c r="A439">
         <v>439</v>
       </c>
-      <c r="B439" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B439" s="1"/>
       <c r="C439">
         <v>2</v>
       </c>
@@ -21164,9 +20322,7 @@
       <c r="A440">
         <v>440</v>
       </c>
-      <c r="B440" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B440" s="1"/>
       <c r="C440">
         <v>2</v>
       </c>
@@ -21227,9 +20383,7 @@
       <c r="A441">
         <v>441</v>
       </c>
-      <c r="B441" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B441" s="1"/>
       <c r="C441">
         <v>2</v>
       </c>
@@ -21290,9 +20444,7 @@
       <c r="A442">
         <v>442</v>
       </c>
-      <c r="B442" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B442" s="1"/>
       <c r="C442">
         <v>2</v>
       </c>
@@ -21345,7 +20497,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="P442" s="3" t="e">
-        <f t="shared" ref="P442:P503" si="64">N442*O442*100</f>
+        <f t="shared" ref="P442:P498" si="64">N442*O442*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -21353,9 +20505,7 @@
       <c r="A443">
         <v>443</v>
       </c>
-      <c r="B443" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B443" s="1"/>
       <c r="C443">
         <v>2</v>
       </c>
@@ -21396,7 +20546,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M443">
-        <f t="shared" ref="M443:M503" si="65">SLOPE(D194:D443,A194:A443)</f>
+        <f t="shared" ref="M443:M499" si="65">SLOPE(D194:D443,A194:A443)</f>
         <v>0</v>
       </c>
       <c r="N443" s="2">
@@ -21416,9 +20566,7 @@
       <c r="A444">
         <v>444</v>
       </c>
-      <c r="B444" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B444" s="1"/>
       <c r="C444">
         <v>2</v>
       </c>
@@ -21479,9 +20627,7 @@
       <c r="A445">
         <v>445</v>
       </c>
-      <c r="B445" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B445" s="1"/>
       <c r="C445">
         <v>2</v>
       </c>
@@ -21518,7 +20664,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L445" s="3" t="e">
-        <f t="shared" ref="L445:L503" si="68">J445*K445*100</f>
+        <f t="shared" ref="L445:L498" si="68">J445*K445*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M445">
@@ -21542,9 +20688,7 @@
       <c r="A446">
         <v>446</v>
       </c>
-      <c r="B446" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B446" s="1"/>
       <c r="C446">
         <v>2</v>
       </c>
@@ -21569,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="I446">
-        <f t="shared" ref="I446:I503" si="69">SLOPE(D322:D446,A322:A446)</f>
+        <f t="shared" ref="I446:I498" si="69">SLOPE(D322:D446,A322:A446)</f>
         <v>0</v>
       </c>
       <c r="J446" s="2">
@@ -21605,9 +20749,7 @@
       <c r="A447">
         <v>447</v>
       </c>
-      <c r="B447" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B447" s="1"/>
       <c r="C447">
         <v>2</v>
       </c>
@@ -21668,9 +20810,7 @@
       <c r="A448">
         <v>448</v>
       </c>
-      <c r="B448" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B448" s="1"/>
       <c r="C448">
         <v>2</v>
       </c>
@@ -21731,9 +20871,7 @@
       <c r="A449">
         <v>449</v>
       </c>
-      <c r="B449" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B449" s="1"/>
       <c r="C449">
         <v>2</v>
       </c>
@@ -21794,9 +20932,7 @@
       <c r="A450">
         <v>450</v>
       </c>
-      <c r="B450" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B450" s="1"/>
       <c r="C450">
         <v>2</v>
       </c>
@@ -21857,9 +20993,7 @@
       <c r="A451">
         <v>451</v>
       </c>
-      <c r="B451" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B451" s="1"/>
       <c r="C451">
         <v>2</v>
       </c>
@@ -21920,9 +21054,7 @@
       <c r="A452">
         <v>452</v>
       </c>
-      <c r="B452" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B452" s="1"/>
       <c r="C452">
         <v>2</v>
       </c>
@@ -21983,9 +21115,7 @@
       <c r="A453">
         <v>453</v>
       </c>
-      <c r="B453" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B453" s="1"/>
       <c r="C453">
         <v>2</v>
       </c>
@@ -22046,9 +21176,7 @@
       <c r="A454">
         <v>454</v>
       </c>
-      <c r="B454" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B454" s="1"/>
       <c r="C454">
         <v>2</v>
       </c>
@@ -22109,9 +21237,7 @@
       <c r="A455">
         <v>455</v>
       </c>
-      <c r="B455" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B455" s="1"/>
       <c r="C455">
         <v>2</v>
       </c>
@@ -22172,9 +21298,7 @@
       <c r="A456">
         <v>456</v>
       </c>
-      <c r="B456" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B456" s="1"/>
       <c r="C456">
         <v>2</v>
       </c>
@@ -22235,9 +21359,7 @@
       <c r="A457">
         <v>457</v>
       </c>
-      <c r="B457" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B457" s="1"/>
       <c r="C457">
         <v>2</v>
       </c>
@@ -22298,9 +21420,7 @@
       <c r="A458">
         <v>458</v>
       </c>
-      <c r="B458" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B458" s="1"/>
       <c r="C458">
         <v>2</v>
       </c>
@@ -22361,9 +21481,7 @@
       <c r="A459">
         <v>459</v>
       </c>
-      <c r="B459" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B459" s="1"/>
       <c r="C459">
         <v>2</v>
       </c>
@@ -22424,9 +21542,7 @@
       <c r="A460">
         <v>460</v>
       </c>
-      <c r="B460" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B460" s="1"/>
       <c r="C460">
         <v>2</v>
       </c>
@@ -22487,9 +21603,7 @@
       <c r="A461">
         <v>461</v>
       </c>
-      <c r="B461" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B461" s="1"/>
       <c r="C461">
         <v>2</v>
       </c>
@@ -22550,9 +21664,7 @@
       <c r="A462">
         <v>462</v>
       </c>
-      <c r="B462" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B462" s="1"/>
       <c r="C462">
         <v>2</v>
       </c>
@@ -22613,9 +21725,7 @@
       <c r="A463">
         <v>463</v>
       </c>
-      <c r="B463" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B463" s="1"/>
       <c r="C463">
         <v>2</v>
       </c>
@@ -22676,9 +21786,7 @@
       <c r="A464">
         <v>464</v>
       </c>
-      <c r="B464" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B464" s="1"/>
       <c r="C464">
         <v>2</v>
       </c>
@@ -22739,9 +21847,7 @@
       <c r="A465">
         <v>465</v>
       </c>
-      <c r="B465" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B465" s="1"/>
       <c r="C465">
         <v>2</v>
       </c>
@@ -22802,9 +21908,7 @@
       <c r="A466">
         <v>466</v>
       </c>
-      <c r="B466" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B466" s="1"/>
       <c r="C466">
         <v>2</v>
       </c>
@@ -22865,9 +21969,7 @@
       <c r="A467">
         <v>467</v>
       </c>
-      <c r="B467" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B467" s="1"/>
       <c r="C467">
         <v>2</v>
       </c>
@@ -22928,9 +22030,7 @@
       <c r="A468">
         <v>468</v>
       </c>
-      <c r="B468" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B468" s="1"/>
       <c r="C468">
         <v>2</v>
       </c>
@@ -22991,9 +22091,7 @@
       <c r="A469">
         <v>469</v>
       </c>
-      <c r="B469" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B469" s="1"/>
       <c r="C469">
         <v>2</v>
       </c>
@@ -23054,9 +22152,7 @@
       <c r="A470">
         <v>470</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B470" s="1"/>
       <c r="C470">
         <v>2</v>
       </c>
@@ -23117,9 +22213,7 @@
       <c r="A471">
         <v>471</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B471" s="1"/>
       <c r="C471">
         <v>2</v>
       </c>
@@ -23180,9 +22274,7 @@
       <c r="A472">
         <v>472</v>
       </c>
-      <c r="B472" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B472" s="1"/>
       <c r="C472">
         <v>2</v>
       </c>
@@ -23243,9 +22335,7 @@
       <c r="A473">
         <v>473</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B473" s="1"/>
       <c r="C473">
         <v>2</v>
       </c>
@@ -23306,9 +22396,7 @@
       <c r="A474">
         <v>474</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B474" s="1"/>
       <c r="C474">
         <v>2</v>
       </c>
@@ -23369,9 +22457,7 @@
       <c r="A475">
         <v>475</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B475" s="1"/>
       <c r="C475">
         <v>2</v>
       </c>
@@ -23380,7 +22466,7 @@
         <v>0.69314718055994529</v>
       </c>
       <c r="E475">
-        <f t="shared" ref="E475:E503" si="72">SLOPE(D386:D475,A386:A475)</f>
+        <f t="shared" ref="E475:E498" si="72">SLOPE(D386:D475,A386:A475)</f>
         <v>0</v>
       </c>
       <c r="F475" s="2">
@@ -23392,7 +22478,7 @@
         <v>0</v>
       </c>
       <c r="H475" s="3">
-        <f t="shared" ref="H475:H503" si="75">F475*G475*100</f>
+        <f t="shared" ref="H475:H498" si="75">F475*G475*100</f>
         <v>0</v>
       </c>
       <c r="I475">
@@ -23432,9 +22518,7 @@
       <c r="A476">
         <v>476</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B476" s="1"/>
       <c r="C476">
         <v>2</v>
       </c>
@@ -23495,9 +22579,7 @@
       <c r="A477">
         <v>477</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B477" s="1"/>
       <c r="C477">
         <v>2</v>
       </c>
@@ -23558,9 +22640,7 @@
       <c r="A478">
         <v>478</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B478" s="1"/>
       <c r="C478">
         <v>2</v>
       </c>
@@ -23621,9 +22701,7 @@
       <c r="A479">
         <v>479</v>
       </c>
-      <c r="B479" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B479" s="1"/>
       <c r="C479">
         <v>2</v>
       </c>
@@ -23684,9 +22762,7 @@
       <c r="A480">
         <v>480</v>
       </c>
-      <c r="B480" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B480" s="1"/>
       <c r="C480">
         <v>2</v>
       </c>
@@ -23747,9 +22823,7 @@
       <c r="A481">
         <v>481</v>
       </c>
-      <c r="B481" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B481" s="1"/>
       <c r="C481">
         <v>2</v>
       </c>
@@ -23810,9 +22884,7 @@
       <c r="A482">
         <v>482</v>
       </c>
-      <c r="B482" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B482" s="1"/>
       <c r="C482">
         <v>2</v>
       </c>
@@ -23873,9 +22945,7 @@
       <c r="A483">
         <v>483</v>
       </c>
-      <c r="B483" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B483" s="1"/>
       <c r="C483">
         <v>2</v>
       </c>
@@ -23936,9 +23006,7 @@
       <c r="A484">
         <v>484</v>
       </c>
-      <c r="B484" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B484" s="1"/>
       <c r="C484">
         <v>2</v>
       </c>
@@ -23999,9 +23067,7 @@
       <c r="A485">
         <v>485</v>
       </c>
-      <c r="B485" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B485" s="1"/>
       <c r="C485">
         <v>2</v>
       </c>
@@ -24062,9 +23128,7 @@
       <c r="A486">
         <v>486</v>
       </c>
-      <c r="B486" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B486" s="1"/>
       <c r="C486">
         <v>2</v>
       </c>
@@ -24125,9 +23189,7 @@
       <c r="A487">
         <v>487</v>
       </c>
-      <c r="B487" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B487" s="1"/>
       <c r="C487">
         <v>2</v>
       </c>
@@ -24188,9 +23250,7 @@
       <c r="A488">
         <v>488</v>
       </c>
-      <c r="B488" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B488" s="1"/>
       <c r="C488">
         <v>2</v>
       </c>
@@ -24251,9 +23311,7 @@
       <c r="A489">
         <v>489</v>
       </c>
-      <c r="B489" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B489" s="1"/>
       <c r="C489">
         <v>2</v>
       </c>
@@ -24314,9 +23372,7 @@
       <c r="A490">
         <v>490</v>
       </c>
-      <c r="B490" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B490" s="1"/>
       <c r="C490">
         <v>2</v>
       </c>
@@ -24377,9 +23433,7 @@
       <c r="A491">
         <v>491</v>
       </c>
-      <c r="B491" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B491" s="1"/>
       <c r="C491">
         <v>2</v>
       </c>
@@ -24440,9 +23494,7 @@
       <c r="A492">
         <v>492</v>
       </c>
-      <c r="B492" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B492" s="1"/>
       <c r="C492">
         <v>2</v>
       </c>
@@ -24503,9 +23555,7 @@
       <c r="A493">
         <v>493</v>
       </c>
-      <c r="B493" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B493" s="1"/>
       <c r="C493">
         <v>2</v>
       </c>
@@ -24566,9 +23616,7 @@
       <c r="A494">
         <v>494</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B494" s="1"/>
       <c r="C494">
         <v>2</v>
       </c>
@@ -24629,9 +23677,7 @@
       <c r="A495">
         <v>495</v>
       </c>
-      <c r="B495" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B495" s="1"/>
       <c r="C495">
         <v>2</v>
       </c>
@@ -24692,9 +23738,7 @@
       <c r="A496">
         <v>496</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B496" s="1"/>
       <c r="C496">
         <v>2</v>
       </c>
@@ -24755,9 +23799,7 @@
       <c r="A497">
         <v>497</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B497" s="1"/>
       <c r="C497">
         <v>2</v>
       </c>
@@ -24818,9 +23860,7 @@
       <c r="A498">
         <v>498</v>
       </c>
-      <c r="B498" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B498" s="1"/>
       <c r="C498">
         <v>2</v>
       </c>
@@ -24881,9 +23921,7 @@
       <c r="A499">
         <v>499</v>
       </c>
-      <c r="B499" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B499" s="1"/>
       <c r="C499">
         <v>2</v>
       </c>
@@ -24944,9 +23982,7 @@
       <c r="A500">
         <v>500</v>
       </c>
-      <c r="B500" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B500" s="1"/>
       <c r="C500">
         <v>2</v>
       </c>
@@ -25007,10 +24043,8 @@
       <c r="A501">
         <v>501</v>
       </c>
-      <c r="B501" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C501">
+      <c r="B501" s="1"/>
+      <c r="C501" s="7">
         <v>2</v>
       </c>
       <c r="D501" s="3">
@@ -25070,10 +24104,8 @@
       <c r="A502">
         <v>502</v>
       </c>
-      <c r="B502" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C502">
+      <c r="B502" s="1"/>
+      <c r="C502" s="7">
         <v>2</v>
       </c>
       <c r="D502" s="3">
@@ -25133,10 +24165,8 @@
       <c r="A503">
         <v>503</v>
       </c>
-      <c r="B503" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C503">
+      <c r="B503" s="1"/>
+      <c r="C503" s="7">
         <v>2</v>
       </c>
       <c r="D503" s="3">
@@ -25196,10 +24226,8 @@
       <c r="A504">
         <v>504</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C504">
+      <c r="B504" s="1"/>
+      <c r="C504" s="7">
         <v>2</v>
       </c>
       <c r="D504" s="3">
@@ -25259,10 +24287,8 @@
       <c r="A505">
         <v>505</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C505">
+      <c r="B505" s="1"/>
+      <c r="C505" s="7">
         <v>2</v>
       </c>
       <c r="D505" s="3">
@@ -25322,10 +24348,8 @@
       <c r="A506">
         <v>506</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C506">
+      <c r="B506" s="1"/>
+      <c r="C506" s="7">
         <v>2</v>
       </c>
       <c r="D506" s="3">
@@ -25385,10 +24409,8 @@
       <c r="A507">
         <v>507</v>
       </c>
-      <c r="B507" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C507">
+      <c r="B507" s="1"/>
+      <c r="C507" s="7">
         <v>2</v>
       </c>
       <c r="D507" s="3">
@@ -25448,10 +24470,8 @@
       <c r="A508">
         <v>508</v>
       </c>
-      <c r="B508" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C508">
+      <c r="B508" s="1"/>
+      <c r="C508" s="7">
         <v>2</v>
       </c>
       <c r="D508" s="3">
@@ -25520,6 +24540,32 @@
         <f>IF(P508&lt;&gt;0,P508,IF(P507&lt;&gt;0,P507,IF(P506&lt;&gt;0,P506,IF(P505&lt;&gt;0,P505,IF(P504&lt;&gt;0,P504,IF(P503&lt;&gt;0,P503,IF(P502&lt;&gt;0,P502,IF(P501&lt;&gt;0,P501,IF(P500&lt;&gt;0,P500,IF(P499&lt;&gt;0,P499,"0"))))))))))</f>
         <v>0</v>
       </c>
+    </row>
+    <row r="514" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A514" s="5"/>
+      <c r="B514" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C514" s="5"/>
+      <c r="D514" s="8"/>
+      <c r="E514" s="5"/>
+      <c r="F514" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G514" s="5"/>
+      <c r="H514" s="8"/>
+      <c r="I514" s="5"/>
+      <c r="J514" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K514" s="5"/>
+      <c r="L514" s="8"/>
+      <c r="M514" s="5"/>
+      <c r="N514" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="O514" s="5"/>
+      <c r="P514" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
